--- a/kapitel-5/kreditvergabe/kredite_greenwash2025.xlsx
+++ b/kapitel-5/kreditvergabe/kredite_greenwash2025.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65ff0e6be96a7d93/Documents/Juri-Apps/repo/kapitel-5/kreditvergabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{C41F597B-FC7A-44B7-A5B4-F84CB18E3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF7D0567-7A3E-458E-8F5F-4C1D0706B18D}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{C41F597B-FC7A-44B7-A5B4-F84CB18E3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBC430D2-D12E-4DCC-AAF8-A5833FCFFB6D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C40B6AA0-82C7-477F-A93D-52F6EC7EC8C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kredite_2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Karate Dojo GmbH</t>
+  </si>
+  <si>
+    <t>Vernetzung</t>
   </si>
 </sst>
 </file>
@@ -152,12 +155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -187,9 +196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -530,475 +543,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BC7463-E611-4B3D-9D68-ED4FC1FEADA5}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>120000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>88000</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>117000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>94000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>137000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>144000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>76000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>149000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>135000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>98000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>180000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>261000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>91000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>276000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>198000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>91000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>361000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>812000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>963000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>583000</v>
+      </c>
+      <c r="D8" s="1">
         <v>40</v>
       </c>
-      <c r="E2">
-        <v>117000</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E8" s="1">
+        <v>528000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>21000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>326000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>141000</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>81000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>339000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>255000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>522000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>289000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1">
+        <v>990000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>81000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1">
+        <v>178000</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>94000</v>
-      </c>
-      <c r="C3">
-        <v>237000</v>
-      </c>
-      <c r="D3">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1">
+        <v>81000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>296000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <v>310000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>309000</v>
+      </c>
+      <c r="D14" s="1">
         <v>40</v>
       </c>
-      <c r="E3">
-        <v>144000</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E14" s="1">
+        <v>583000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>23000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>669000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1">
+        <v>281000</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>31000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>271000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>331000</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>126000</v>
-      </c>
-      <c r="C4">
-        <v>249000</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>275000</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>78000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>345000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1">
+        <v>202000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>59000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>295000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>268000</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>113000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>125000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>169000</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>64000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>471000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <v>232000</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>544000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>413000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
+        <v>887000</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>159000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>119000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>170000</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>161000</v>
-      </c>
-      <c r="C5">
-        <v>180000</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>261000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>91000</v>
-      </c>
-      <c r="C6">
-        <v>276000</v>
-      </c>
-      <c r="D6">
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>419000</v>
+      </c>
+      <c r="D23" s="1">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>198000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>91000</v>
-      </c>
-      <c r="C7">
-        <v>361000</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>812000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>963000</v>
-      </c>
-      <c r="C8">
-        <v>583000</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>528000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>131000</v>
-      </c>
-      <c r="C9">
-        <v>326000</v>
-      </c>
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <v>141000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>81000</v>
-      </c>
-      <c r="C10">
-        <v>339000</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>255000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>522000</v>
-      </c>
-      <c r="C11">
-        <v>289000</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-      <c r="E11">
-        <v>990000</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>81000</v>
-      </c>
-      <c r="C12">
-        <v>12000</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>178000</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>81000</v>
-      </c>
-      <c r="C13">
-        <v>296000</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>310000</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>110000</v>
-      </c>
-      <c r="C14">
-        <v>309000</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>583000</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>23000</v>
-      </c>
-      <c r="C15">
-        <v>669000</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>281000</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>31000</v>
-      </c>
-      <c r="C16">
-        <v>271000</v>
-      </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-      <c r="E16">
-        <v>331000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>78000</v>
-      </c>
-      <c r="C17">
-        <v>345000</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>202000</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>59000</v>
-      </c>
-      <c r="C18">
-        <v>295000</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>268000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>113000</v>
-      </c>
-      <c r="C19">
-        <v>125000</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-      <c r="E19">
-        <v>169000</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>64000</v>
-      </c>
-      <c r="C20">
-        <v>471000</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>232000</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>44000</v>
-      </c>
-      <c r="C21">
-        <v>413000</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="E21">
-        <v>187000</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>559000</v>
-      </c>
-      <c r="C22">
-        <v>419000</v>
-      </c>
-      <c r="D22">
-        <v>60</v>
-      </c>
-      <c r="E22">
-        <v>990000</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>500000</v>
-      </c>
-      <c r="C23">
-        <v>419000</v>
-      </c>
-      <c r="D23">
-        <v>60</v>
-      </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>910000</v>
       </c>
-      <c r="F23" t="s">
-        <v>8</v>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
